--- a/data/trans_bre/P57_AF_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P57_AF_R-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,26; 1,62</t>
+          <t>-12,95; 1,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 10,02</t>
+          <t>-4,71; 12,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 9,78</t>
+          <t>-3,89; 9,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,8; -0,57</t>
+          <t>-12,22; -0,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-21,42; 2,89</t>
+          <t>-21,41; 2,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 18,52</t>
+          <t>-7,57; 22,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 14,85</t>
+          <t>-5,44; 14,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-23,42; -1,24</t>
+          <t>-22,49; -0,76</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 12,75</t>
+          <t>-1,17; 13,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 12,92</t>
+          <t>-2,06; 13,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 7,58</t>
+          <t>-6,22; 8,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 6,52</t>
+          <t>-6,33; 6,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 25,96</t>
+          <t>-2,28; 26,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 22,07</t>
+          <t>-3,2; 22,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 11,49</t>
+          <t>-8,49; 12,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 12,44</t>
+          <t>-10,83; 13,02</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 7,13</t>
+          <t>-9,63; 6,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 11,05</t>
+          <t>-3,19; 11,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 9,32</t>
+          <t>-5,83; 8,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 46,67</t>
+          <t>-3,35; 46,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 11,57</t>
+          <t>-14,4; 10,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 18,97</t>
+          <t>-4,96; 19,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 12,64</t>
+          <t>-7,46; 11,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 294,73</t>
+          <t>-5,73; 345,79</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 5,88</t>
+          <t>-3,24; 5,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,44; 10,65</t>
+          <t>2,1; 10,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 3,57</t>
+          <t>-4,5; 3,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 23,78</t>
+          <t>-4,1; 26,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 9,35</t>
+          <t>-4,93; 9,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,15; 17,16</t>
+          <t>3,2; 17,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 4,87</t>
+          <t>-5,86; 4,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 41,96</t>
+          <t>-6,77; 48,15</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 10,46</t>
+          <t>-2,82; 11,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 8,1</t>
+          <t>-2,65; 8,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 8,12</t>
+          <t>-1,3; 8,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-19,84; 2,86</t>
+          <t>-21,95; 2,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 17,98</t>
+          <t>-4,25; 19,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 12,67</t>
+          <t>-3,76; 13,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 10,83</t>
+          <t>-1,52; 10,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-30,71; 4,63</t>
+          <t>-34,32; 4,01</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,05; 16,39</t>
+          <t>4,56; 16,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,65; 19,22</t>
+          <t>5,07; 18,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,02; 13,19</t>
+          <t>1,05; 13,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,98; 34,42</t>
+          <t>12,77; 33,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,73; 38,05</t>
+          <t>8,49; 39,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,18; 42,13</t>
+          <t>8,64; 38,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,38; 20,5</t>
+          <t>1,39; 20,95</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>26,13; 127,53</t>
+          <t>29,24; 132,84</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 2,74</t>
+          <t>-1,88; 3,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,48; 7,01</t>
+          <t>2,45; 7,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,03; 4,45</t>
+          <t>-0,02; 4,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,06; 21,35</t>
+          <t>0,17; 19,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 4,6</t>
+          <t>-3,03; 5,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,9; 11,53</t>
+          <t>3,84; 11,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,04; 6,14</t>
+          <t>-0,02; 5,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 52,27</t>
+          <t>0,31; 46,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P57_AF_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P57_AF_R-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
